--- a/Data/EXCData/2019 - copia.xlsx
+++ b/Data/EXCData/2019 - copia.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_2019" localSheetId="0">Hoja1!$A$1:$I$152</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.7690000000000001</v>
+        <v>7769</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.6</v>
+        <v>7600</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.2029999999999998</v>
+        <v>3203</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>7.5540000000000003</v>
+        <v>7554</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>7.4939999999999998</v>
+        <v>7494</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1365,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>4.7190000000000003</v>
+        <v>4719</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>7.4880000000000004</v>
+        <v>7488</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1387,7 +1387,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>7.48</v>
+        <v>7480</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1398,7 +1398,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>6.8250000000000002</v>
+        <v>6825</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1409,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>6.0860000000000003</v>
+        <v>6086</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1420,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7.3070000000000004</v>
+        <v>7307</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1431,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>4.5590000000000002</v>
+        <v>4559</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -1442,7 +1442,7 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>7.2779999999999996</v>
+        <v>7278</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -1453,7 +1453,7 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>7.2460000000000004</v>
+        <v>7246</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1464,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>7.2279999999999998</v>
+        <v>7228</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1475,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>7.1669999999999998</v>
+        <v>7167</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1486,7 +1486,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>7.1390000000000002</v>
+        <v>7139</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1497,7 +1497,7 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>5.2080000000000002</v>
+        <v>5208</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -1508,7 +1508,7 @@
         <v>36</v>
       </c>
       <c r="B20">
-        <v>7.09</v>
+        <v>7090</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -1519,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>3.7749999999999999</v>
+        <v>3775</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -1530,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>7.0540000000000003</v>
+        <v>7054</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -1541,7 +1541,7 @@
         <v>42</v>
       </c>
       <c r="B23">
-        <v>6.923</v>
+        <v>6923</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1552,7 +1552,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>7.0209999999999999</v>
+        <v>7021</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -1563,7 +1563,7 @@
         <v>46</v>
       </c>
       <c r="B25">
-        <v>4.883</v>
+        <v>4883</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -1574,7 +1574,7 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>6.9850000000000003</v>
+        <v>6985</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
@@ -1585,7 +1585,7 @@
         <v>50</v>
       </c>
       <c r="B27">
-        <v>4.5869999999999997</v>
+        <v>4587</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
@@ -1596,7 +1596,7 @@
         <v>52</v>
       </c>
       <c r="B28">
-        <v>4.4560000000000004</v>
+        <v>4456</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -1607,7 +1607,7 @@
         <v>54</v>
       </c>
       <c r="B29">
-        <v>5.0110000000000001</v>
+        <v>5011</v>
       </c>
       <c r="C29" t="s">
         <v>55</v>
@@ -1618,7 +1618,7 @@
         <v>56</v>
       </c>
       <c r="B30">
-        <v>6.8520000000000003</v>
+        <v>6852</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
@@ -1629,7 +1629,7 @@
         <v>58</v>
       </c>
       <c r="B31">
-        <v>6.1989999999999998</v>
+        <v>6199</v>
       </c>
       <c r="C31" t="s">
         <v>59</v>
@@ -1640,7 +1640,7 @@
         <v>60</v>
       </c>
       <c r="B32">
-        <v>6.726</v>
+        <v>6726</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
@@ -1651,7 +1651,7 @@
         <v>62</v>
       </c>
       <c r="B33">
-        <v>5.3860000000000001</v>
+        <v>5386</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -1662,7 +1662,7 @@
         <v>64</v>
       </c>
       <c r="B34">
-        <v>6.5949999999999998</v>
+        <v>6595</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -1673,7 +1673,7 @@
         <v>66</v>
       </c>
       <c r="B35">
-        <v>5.3230000000000004</v>
+        <v>5323</v>
       </c>
       <c r="C35" t="s">
         <v>67</v>
@@ -1684,7 +1684,7 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>6.5919999999999996</v>
+        <v>6592</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
@@ -1695,7 +1695,7 @@
         <v>70</v>
       </c>
       <c r="B37">
-        <v>6.444</v>
+        <v>6444</v>
       </c>
       <c r="C37" t="s">
         <v>71</v>
@@ -1706,7 +1706,7 @@
         <v>72</v>
       </c>
       <c r="B38">
-        <v>5.7789999999999999</v>
+        <v>5779</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>
@@ -1717,7 +1717,7 @@
         <v>74</v>
       </c>
       <c r="B39">
-        <v>6.4359999999999999</v>
+        <v>6436</v>
       </c>
       <c r="C39" t="s">
         <v>75</v>
@@ -1728,7 +1728,7 @@
         <v>76</v>
       </c>
       <c r="B40">
-        <v>6.3</v>
+        <v>6300</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
@@ -1739,7 +1739,7 @@
         <v>78</v>
       </c>
       <c r="B41">
-        <v>6.3540000000000001</v>
+        <v>6354</v>
       </c>
       <c r="C41" t="s">
         <v>79</v>
@@ -1750,7 +1750,7 @@
         <v>80</v>
       </c>
       <c r="B42">
-        <v>5.0819999999999999</v>
+        <v>5082</v>
       </c>
       <c r="C42" t="s">
         <v>81</v>
@@ -1761,7 +1761,7 @@
         <v>82</v>
       </c>
       <c r="B43">
-        <v>6.3209999999999997</v>
+        <v>6321</v>
       </c>
       <c r="C43" t="s">
         <v>83</v>
@@ -1772,7 +1772,7 @@
         <v>84</v>
       </c>
       <c r="B44">
-        <v>3.488</v>
+        <v>3488</v>
       </c>
       <c r="C44" t="s">
         <v>85</v>
@@ -1783,7 +1783,7 @@
         <v>86</v>
       </c>
       <c r="B45">
-        <v>3.0830000000000002</v>
+        <v>3083</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
@@ -1794,7 +1794,7 @@
         <v>88</v>
       </c>
       <c r="B46">
-        <v>6.2229999999999999</v>
+        <v>6223</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
@@ -1805,7 +1805,7 @@
         <v>90</v>
       </c>
       <c r="B47">
-        <v>5.1909999999999998</v>
+        <v>5191</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
@@ -1816,7 +1816,7 @@
         <v>92</v>
       </c>
       <c r="B48">
-        <v>5.0439999999999996</v>
+        <v>5044</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
@@ -1827,7 +1827,7 @@
         <v>94</v>
       </c>
       <c r="B49">
-        <v>6.1820000000000004</v>
+        <v>6182</v>
       </c>
       <c r="C49" t="s">
         <v>95</v>
@@ -1838,7 +1838,7 @@
         <v>96</v>
       </c>
       <c r="B50">
-        <v>6.125</v>
+        <v>6125</v>
       </c>
       <c r="C50" t="s">
         <v>97</v>
@@ -1849,7 +1849,7 @@
         <v>98</v>
       </c>
       <c r="B51">
-        <v>6.149</v>
+        <v>6149</v>
       </c>
       <c r="C51" t="s">
         <v>99</v>
@@ -1860,7 +1860,7 @@
         <v>100</v>
       </c>
       <c r="B52">
-        <v>3.9729999999999999</v>
+        <v>3973</v>
       </c>
       <c r="C52" t="s">
         <v>101</v>
@@ -1871,7 +1871,7 @@
         <v>102</v>
       </c>
       <c r="B53">
-        <v>6.1050000000000004</v>
+        <v>6105</v>
       </c>
       <c r="C53" t="s">
         <v>103</v>
@@ -1882,7 +1882,7 @@
         <v>104</v>
       </c>
       <c r="B54">
-        <v>6.0460000000000003</v>
+        <v>6046</v>
       </c>
       <c r="C54" t="s">
         <v>105</v>
@@ -1893,7 +1893,7 @@
         <v>106</v>
       </c>
       <c r="B55">
-        <v>6.0279999999999996</v>
+        <v>6028</v>
       </c>
       <c r="C55" t="s">
         <v>107</v>
@@ -1904,7 +1904,7 @@
         <v>108</v>
       </c>
       <c r="B56">
-        <v>6.0209999999999999</v>
+        <v>6021</v>
       </c>
       <c r="C56" t="s">
         <v>109</v>
@@ -1915,7 +1915,7 @@
         <v>110</v>
       </c>
       <c r="B57">
-        <v>5.94</v>
+        <v>5940</v>
       </c>
       <c r="C57" t="s">
         <v>111</v>
@@ -1926,7 +1926,7 @@
         <v>112</v>
       </c>
       <c r="B58">
-        <v>5.4249999999999998</v>
+        <v>5425</v>
       </c>
       <c r="C58" t="s">
         <v>113</v>
@@ -1937,7 +1937,7 @@
         <v>114</v>
       </c>
       <c r="B59">
-        <v>5.8929999999999998</v>
+        <v>5893</v>
       </c>
       <c r="C59" t="s">
         <v>115</v>
@@ -1948,7 +1948,7 @@
         <v>116</v>
       </c>
       <c r="B60">
-        <v>5.2110000000000003</v>
+        <v>5211</v>
       </c>
       <c r="C60" t="s">
         <v>117</v>
@@ -1959,7 +1959,7 @@
         <v>118</v>
       </c>
       <c r="B61">
-        <v>5.89</v>
+        <v>5890</v>
       </c>
       <c r="C61" t="s">
         <v>119</v>
@@ -1970,7 +1970,7 @@
         <v>120</v>
       </c>
       <c r="B62">
-        <v>5.8879999999999999</v>
+        <v>5888</v>
       </c>
       <c r="C62" t="s">
         <v>121</v>
@@ -1981,7 +1981,7 @@
         <v>122</v>
       </c>
       <c r="B63">
-        <v>5.8860000000000001</v>
+        <v>5886</v>
       </c>
       <c r="C63" t="s">
         <v>123</v>
@@ -1992,7 +1992,7 @@
         <v>124</v>
       </c>
       <c r="B64">
-        <v>5.86</v>
+        <v>5860</v>
       </c>
       <c r="C64" t="s">
         <v>125</v>
@@ -2003,7 +2003,7 @@
         <v>126</v>
       </c>
       <c r="B65">
-        <v>5.8090000000000002</v>
+        <v>5809</v>
       </c>
       <c r="C65" t="s">
         <v>127</v>
@@ -2014,7 +2014,7 @@
         <v>128</v>
       </c>
       <c r="B66">
-        <v>4.2859999999999996</v>
+        <v>4286</v>
       </c>
       <c r="C66" t="s">
         <v>129</v>
@@ -2025,7 +2025,7 @@
         <v>130</v>
       </c>
       <c r="B67">
-        <v>5.758</v>
+        <v>5758</v>
       </c>
       <c r="C67" t="s">
         <v>131</v>
@@ -2036,7 +2036,7 @@
         <v>132</v>
       </c>
       <c r="B68">
-        <v>5.6970000000000001</v>
+        <v>5697</v>
       </c>
       <c r="C68" t="s">
         <v>133</v>
@@ -2047,7 +2047,7 @@
         <v>134</v>
       </c>
       <c r="B69">
-        <v>4.7990000000000004</v>
+        <v>4799</v>
       </c>
       <c r="C69" t="s">
         <v>135</v>
@@ -2058,7 +2058,7 @@
         <v>136</v>
       </c>
       <c r="B70">
-        <v>5.6529999999999996</v>
+        <v>5653</v>
       </c>
       <c r="C70" t="s">
         <v>137</v>
@@ -2069,7 +2069,7 @@
         <v>138</v>
       </c>
       <c r="B71">
-        <v>4.5190000000000001</v>
+        <v>4519</v>
       </c>
       <c r="C71" t="s">
         <v>139</v>
@@ -2080,7 +2080,7 @@
         <v>140</v>
       </c>
       <c r="B72">
-        <v>5.6310000000000002</v>
+        <v>5631</v>
       </c>
       <c r="C72" t="s">
         <v>141</v>
@@ -2091,7 +2091,7 @@
         <v>142</v>
       </c>
       <c r="B73">
-        <v>4.9960000000000004</v>
+        <v>4996</v>
       </c>
       <c r="C73" t="s">
         <v>143</v>
@@ -2102,7 +2102,7 @@
         <v>144</v>
       </c>
       <c r="B74">
-        <v>5.5289999999999999</v>
+        <v>5529</v>
       </c>
       <c r="C74" t="s">
         <v>145</v>
@@ -2113,7 +2113,7 @@
         <v>146</v>
       </c>
       <c r="B75">
-        <v>4.5339999999999998</v>
+        <v>4534</v>
       </c>
       <c r="C75" t="s">
         <v>147</v>
@@ -2124,7 +2124,7 @@
         <v>148</v>
       </c>
       <c r="B76">
-        <v>5.5250000000000004</v>
+        <v>5525</v>
       </c>
       <c r="C76" t="s">
         <v>149</v>
@@ -2135,7 +2135,7 @@
         <v>150</v>
       </c>
       <c r="B77">
-        <v>5.5229999999999997</v>
+        <v>5523</v>
       </c>
       <c r="C77" t="s">
         <v>151</v>
@@ -2146,7 +2146,7 @@
         <v>152</v>
       </c>
       <c r="B78">
-        <v>5.4320000000000004</v>
+        <v>5432</v>
       </c>
       <c r="C78" t="s">
         <v>153</v>
@@ -2157,7 +2157,7 @@
         <v>154</v>
       </c>
       <c r="B79">
-        <v>5.2869999999999999</v>
+        <v>5287</v>
       </c>
       <c r="C79" t="s">
         <v>155</v>
@@ -2168,7 +2168,7 @@
         <v>156</v>
       </c>
       <c r="B80">
-        <v>5.3390000000000004</v>
+        <v>5339</v>
       </c>
       <c r="C80" t="s">
         <v>157</v>
@@ -2179,7 +2179,7 @@
         <v>158</v>
       </c>
       <c r="B81">
-        <v>5.2850000000000001</v>
+        <v>5285</v>
       </c>
       <c r="C81" t="s">
         <v>159</v>
@@ -2190,7 +2190,7 @@
         <v>160</v>
       </c>
       <c r="B82">
-        <v>3.597</v>
+        <v>3597</v>
       </c>
       <c r="C82" t="s">
         <v>161</v>
@@ -2201,7 +2201,7 @@
         <v>162</v>
       </c>
       <c r="B83">
-        <v>5.2649999999999997</v>
+        <v>5265</v>
       </c>
       <c r="C83" t="s">
         <v>163</v>
@@ -2212,7 +2212,7 @@
         <v>164</v>
       </c>
       <c r="B84">
-        <v>5.1920000000000002</v>
+        <v>5192</v>
       </c>
       <c r="C84" t="s">
         <v>165</v>
@@ -2223,7 +2223,7 @@
         <v>166</v>
       </c>
       <c r="B85">
-        <v>4.0149999999999997</v>
+        <v>4014.9999999999995</v>
       </c>
       <c r="C85" t="s">
         <v>167</v>
@@ -2234,7 +2234,7 @@
         <v>168</v>
       </c>
       <c r="B86">
-        <v>5.2080000000000002</v>
+        <v>5208</v>
       </c>
       <c r="C86" t="s">
         <v>169</v>
@@ -2245,7 +2245,7 @@
         <v>170</v>
       </c>
       <c r="B87">
-        <v>5.1970000000000001</v>
+        <v>5197</v>
       </c>
       <c r="C87" t="s">
         <v>171</v>
@@ -2256,7 +2256,7 @@
         <v>172</v>
       </c>
       <c r="B88">
-        <v>4.4370000000000003</v>
+        <v>4437</v>
       </c>
       <c r="C88" t="s">
         <v>173</v>
@@ -2267,7 +2267,7 @@
         <v>174</v>
       </c>
       <c r="B89">
-        <v>4.9059999999999997</v>
+        <v>4906</v>
       </c>
       <c r="C89" t="s">
         <v>175</v>
@@ -2278,7 +2278,7 @@
         <v>176</v>
       </c>
       <c r="B90">
-        <v>4.5090000000000003</v>
+        <v>4509</v>
       </c>
       <c r="C90" t="s">
         <v>177</v>
@@ -2289,7 +2289,7 @@
         <v>178</v>
       </c>
       <c r="B91">
-        <v>4.9130000000000003</v>
+        <v>4913</v>
       </c>
       <c r="C91" t="s">
         <v>179</v>
@@ -2300,7 +2300,7 @@
         <v>180</v>
       </c>
       <c r="B92">
-        <v>4.7</v>
+        <v>4700</v>
       </c>
       <c r="C92" t="s">
         <v>181</v>
@@ -2311,7 +2311,7 @@
         <v>182</v>
       </c>
       <c r="B93">
-        <v>3.9750000000000001</v>
+        <v>3975</v>
       </c>
       <c r="C93" t="s">
         <v>183</v>
@@ -2322,7 +2322,7 @@
         <v>184</v>
       </c>
       <c r="B94">
-        <v>4.3659999999999997</v>
+        <v>4366</v>
       </c>
       <c r="C94" t="s">
         <v>185</v>
@@ -2333,7 +2333,7 @@
         <v>186</v>
       </c>
       <c r="B95">
-        <v>4.6390000000000002</v>
+        <v>4639</v>
       </c>
       <c r="C95" t="s">
         <v>187</v>
@@ -2344,7 +2344,7 @@
         <v>188</v>
       </c>
       <c r="B96">
-        <v>3.802</v>
+        <v>3802</v>
       </c>
       <c r="C96" t="s">
         <v>189</v>
@@ -2355,7 +2355,7 @@
         <v>190</v>
       </c>
       <c r="B97">
-        <v>4.6280000000000001</v>
+        <v>4628</v>
       </c>
       <c r="C97" t="s">
         <v>191</v>
@@ -2366,7 +2366,7 @@
         <v>192</v>
       </c>
       <c r="B98">
-        <v>4.49</v>
+        <v>4490</v>
       </c>
       <c r="C98" t="s">
         <v>193</v>
@@ -2377,7 +2377,7 @@
         <v>194</v>
       </c>
       <c r="B99">
-        <v>3.9329999999999998</v>
+        <v>3933</v>
       </c>
       <c r="C99" t="s">
         <v>195</v>
@@ -2388,7 +2388,7 @@
         <v>196</v>
       </c>
       <c r="B100">
-        <v>4.4660000000000002</v>
+        <v>4466</v>
       </c>
       <c r="C100" t="s">
         <v>197</v>
@@ -2399,7 +2399,7 @@
         <v>198</v>
       </c>
       <c r="B101">
-        <v>4.3899999999999997</v>
+        <v>4390</v>
       </c>
       <c r="C101" t="s">
         <v>199</v>
@@ -2410,7 +2410,7 @@
         <v>200</v>
       </c>
       <c r="B102">
-        <v>4.3600000000000003</v>
+        <v>4360</v>
       </c>
       <c r="C102" t="s">
         <v>201</v>
@@ -2421,7 +2421,7 @@
         <v>202</v>
       </c>
       <c r="B103">
-        <v>3.41</v>
+        <v>3410</v>
       </c>
       <c r="C103" t="s">
         <v>203</v>
@@ -2432,7 +2432,7 @@
         <v>204</v>
       </c>
       <c r="B104">
-        <v>5.6929999999999996</v>
+        <v>5693</v>
       </c>
       <c r="C104" t="s">
         <v>205</v>
@@ -2443,7 +2443,7 @@
         <v>206</v>
       </c>
       <c r="B105">
-        <v>5.7430000000000003</v>
+        <v>5743</v>
       </c>
       <c r="C105" t="s">
         <v>207</v>
@@ -2454,7 +2454,7 @@
         <v>208</v>
       </c>
       <c r="B106">
-        <v>6.3739999999999997</v>
+        <v>6374</v>
       </c>
       <c r="C106" t="s">
         <v>209</v>
@@ -2465,7 +2465,7 @@
         <v>210</v>
       </c>
       <c r="B107">
-        <v>6.07</v>
+        <v>6070</v>
       </c>
       <c r="C107" t="s">
         <v>211</v>
@@ -2476,7 +2476,7 @@
         <v>212</v>
       </c>
       <c r="B108">
-        <v>3.3340000000000001</v>
+        <v>3334</v>
       </c>
       <c r="C108" t="s">
         <v>213</v>
@@ -2487,7 +2487,7 @@
         <v>214</v>
       </c>
       <c r="B109">
-        <v>6.375</v>
+        <v>6375</v>
       </c>
       <c r="C109" t="s">
         <v>215</v>
@@ -2498,7 +2498,7 @@
         <v>216</v>
       </c>
       <c r="B110">
-        <v>4.681</v>
+        <v>4681</v>
       </c>
       <c r="C110" t="s">
         <v>217</v>
@@ -2509,7 +2509,7 @@
         <v>218</v>
       </c>
       <c r="B111">
-        <v>6.2619999999999996</v>
+        <v>6262</v>
       </c>
       <c r="C111" t="s">
         <v>219</v>
@@ -2520,7 +2520,7 @@
         <v>220</v>
       </c>
       <c r="B112">
-        <v>4.3739999999999997</v>
+        <v>4374</v>
       </c>
       <c r="C112" t="s">
         <v>221</v>
@@ -2531,7 +2531,7 @@
         <v>222</v>
       </c>
       <c r="B113">
-        <v>6.2530000000000001</v>
+        <v>6253</v>
       </c>
       <c r="C113" t="s">
         <v>223</v>
@@ -2542,7 +2542,7 @@
         <v>224</v>
       </c>
       <c r="B114">
-        <v>4.6680000000000001</v>
+        <v>4668</v>
       </c>
       <c r="C114" t="s">
         <v>225</v>
@@ -2553,7 +2553,7 @@
         <v>226</v>
       </c>
       <c r="B115">
-        <v>5.6029999999999998</v>
+        <v>5603</v>
       </c>
       <c r="C115" t="s">
         <v>227</v>
@@ -2564,7 +2564,7 @@
         <v>228</v>
       </c>
       <c r="B116">
-        <v>6.1180000000000003</v>
+        <v>6118</v>
       </c>
       <c r="C116" t="s">
         <v>229</v>
@@ -2575,7 +2575,7 @@
         <v>230</v>
       </c>
       <c r="B117">
-        <v>7.343</v>
+        <v>7343</v>
       </c>
       <c r="C117" t="s">
         <v>231</v>
@@ -2586,7 +2586,7 @@
         <v>232</v>
       </c>
       <c r="B118">
-        <v>4.2119999999999997</v>
+        <v>4212</v>
       </c>
       <c r="C118" t="s">
         <v>233</v>
@@ -2597,7 +2597,7 @@
         <v>234</v>
       </c>
       <c r="B119">
-        <v>4.3499999999999996</v>
+        <v>4350</v>
       </c>
       <c r="C119" t="s">
         <v>235</v>
@@ -2608,7 +2608,7 @@
         <v>236</v>
       </c>
       <c r="B120">
-        <v>4.085</v>
+        <v>4085</v>
       </c>
       <c r="C120" t="s">
         <v>237</v>
@@ -2619,7 +2619,7 @@
         <v>238</v>
       </c>
       <c r="B121">
-        <v>6.008</v>
+        <v>6008</v>
       </c>
       <c r="C121" t="s">
         <v>239</v>
@@ -2630,7 +2630,7 @@
         <v>240</v>
       </c>
       <c r="B122">
-        <v>5.4669999999999996</v>
+        <v>5467</v>
       </c>
       <c r="C122" t="s">
         <v>241</v>
@@ -2641,7 +2641,7 @@
         <v>242</v>
       </c>
       <c r="B123">
-        <v>5.2469999999999999</v>
+        <v>5247</v>
       </c>
       <c r="C123" t="s">
         <v>243</v>
@@ -2652,7 +2652,7 @@
         <v>244</v>
       </c>
       <c r="B124">
-        <v>4.4610000000000003</v>
+        <v>4461</v>
       </c>
       <c r="C124" t="s">
         <v>245</v>
@@ -2663,7 +2663,7 @@
         <v>246</v>
       </c>
       <c r="B125">
-        <v>5.3730000000000002</v>
+        <v>5373</v>
       </c>
       <c r="C125" t="s">
         <v>247</v>
@@ -2674,7 +2674,7 @@
         <v>248</v>
       </c>
       <c r="B126">
-        <v>3.2309999999999999</v>
+        <v>3231</v>
       </c>
       <c r="C126" t="s">
         <v>249</v>
@@ -2685,7 +2685,7 @@
         <v>250</v>
       </c>
       <c r="B127">
-        <v>4.1890000000000001</v>
+        <v>4189</v>
       </c>
       <c r="C127" t="s">
         <v>251</v>
@@ -2696,7 +2696,7 @@
         <v>252</v>
       </c>
       <c r="B128">
-        <v>4.3319999999999999</v>
+        <v>4332</v>
       </c>
       <c r="C128" t="s">
         <v>253</v>
@@ -2707,7 +2707,7 @@
         <v>254</v>
       </c>
       <c r="B129">
-        <v>6.2930000000000001</v>
+        <v>6293</v>
       </c>
       <c r="C129" t="s">
         <v>255</v>
@@ -2718,7 +2718,7 @@
         <v>256</v>
       </c>
       <c r="B130">
-        <v>6.8920000000000003</v>
+        <v>6892</v>
       </c>
       <c r="C130" t="s">
         <v>257</v>
@@ -2729,7 +2729,7 @@
         <v>258</v>
       </c>
       <c r="B131">
-        <v>6.1740000000000004</v>
+        <v>6174</v>
       </c>
       <c r="C131" t="s">
         <v>259</v>
@@ -2740,7 +2740,7 @@
         <v>260</v>
       </c>
       <c r="B132">
-        <v>5.1749999999999998</v>
+        <v>5175</v>
       </c>
       <c r="C132" t="s">
         <v>261</v>
@@ -2751,7 +2751,7 @@
         <v>262</v>
       </c>
       <c r="B133">
-        <v>4.7220000000000004</v>
+        <v>4722</v>
       </c>
       <c r="C133" t="s">
         <v>263</v>
@@ -2762,7 +2762,7 @@
         <v>264</v>
       </c>
       <c r="B134">
-        <v>4.1070000000000002</v>
+        <v>4107</v>
       </c>
       <c r="C134" t="s">
         <v>265</v>
@@ -2773,7 +2773,7 @@
         <v>266</v>
       </c>
       <c r="B135">
-        <v>3.6629999999999998</v>
+        <v>3663</v>
       </c>
       <c r="C135" t="s">
         <v>267</v>
@@ -2784,7 +2784,7 @@
         <v>274</v>
       </c>
       <c r="B136">
-        <v>6.1980000000000004</v>
+        <v>6198</v>
       </c>
       <c r="C136" t="s">
         <v>275</v>
@@ -2795,7 +2795,7 @@
         <v>272</v>
       </c>
       <c r="B137">
-        <v>6.1920000000000002</v>
+        <v>6192</v>
       </c>
       <c r="C137" t="s">
         <v>273</v>
@@ -2806,7 +2806,7 @@
         <v>270</v>
       </c>
       <c r="B138">
-        <v>5.6479999999999997</v>
+        <v>5648</v>
       </c>
       <c r="C138" t="s">
         <v>271</v>
@@ -2817,7 +2817,7 @@
         <v>268</v>
       </c>
       <c r="B139">
-        <v>5.43</v>
+        <v>5430</v>
       </c>
       <c r="C139" t="s">
         <v>269</v>
@@ -2828,7 +2828,7 @@
         <v>276</v>
       </c>
       <c r="B140">
-        <v>4.8120000000000003</v>
+        <v>4812</v>
       </c>
       <c r="C140" t="s">
         <v>277</v>
@@ -2839,7 +2839,7 @@
         <v>282</v>
       </c>
       <c r="B141">
-        <v>4.7960000000000003</v>
+        <v>4796</v>
       </c>
       <c r="C141" t="s">
         <v>283</v>
@@ -2850,7 +2850,7 @@
         <v>280</v>
       </c>
       <c r="B142">
-        <v>4.7069999999999999</v>
+        <v>4707</v>
       </c>
       <c r="C142" t="s">
         <v>281</v>
@@ -2861,7 +2861,7 @@
         <v>284</v>
       </c>
       <c r="B143">
-        <v>4.548</v>
+        <v>4548</v>
       </c>
       <c r="C143" t="s">
         <v>285</v>
@@ -2872,7 +2872,7 @@
         <v>286</v>
       </c>
       <c r="B144">
-        <v>4.516</v>
+        <v>4516</v>
       </c>
       <c r="C144" t="s">
         <v>287</v>
@@ -2883,7 +2883,7 @@
         <v>278</v>
       </c>
       <c r="B145">
-        <v>4.4180000000000001</v>
+        <v>4418</v>
       </c>
       <c r="C145" t="s">
         <v>279</v>
@@ -2894,7 +2894,7 @@
         <v>288</v>
       </c>
       <c r="B146">
-        <v>4.1660000000000004</v>
+        <v>4166</v>
       </c>
       <c r="C146" t="s">
         <v>289</v>
@@ -2905,7 +2905,7 @@
         <v>290</v>
       </c>
       <c r="B147">
-        <v>3.4620000000000002</v>
+        <v>3462</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>291</v>
@@ -2916,7 +2916,7 @@
         <v>292</v>
       </c>
       <c r="B148">
-        <v>3.38</v>
+        <v>3380</v>
       </c>
       <c r="C148" t="s">
         <v>293</v>
